--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1789.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1789.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.192463840919556</v>
+        <v>0.6943265199661255</v>
       </c>
       <c r="B1">
-        <v>2.345714227128859</v>
+        <v>1.33771276473999</v>
       </c>
       <c r="C1">
-        <v>5.398343950008606</v>
+        <v>3.883811712265015</v>
       </c>
       <c r="D1">
-        <v>2.369944937186104</v>
+        <v>2.723388433456421</v>
       </c>
       <c r="E1">
-        <v>1.088538717319415</v>
+        <v>0.5670968294143677</v>
       </c>
     </row>
   </sheetData>
